--- a/src/test/resources/TestData/data_tables_homework.xlsx
+++ b/src/test/resources/TestData/data_tables_homework.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>firstname</t>
   </si>
@@ -37,9 +37,6 @@
     <t>salary</t>
   </si>
   <si>
-    <t>ali</t>
-  </si>
-  <si>
     <t>veli</t>
   </si>
   <si>
@@ -50,6 +47,33 @@
   </si>
   <si>
     <t>"2023.01.30"</t>
+  </si>
+  <si>
+    <t>kar</t>
+  </si>
+  <si>
+    <t>defance</t>
+  </si>
+  <si>
+    <t>Agrı</t>
+  </si>
+  <si>
+    <t>yar</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>Maras</t>
+  </si>
+  <si>
+    <t>ali4</t>
+  </si>
+  <si>
+    <t>ali5</t>
+  </si>
+  <si>
+    <t>ali6</t>
   </si>
 </sst>
 </file>
@@ -111,11 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -326,10 +352,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -359,25 +385,71 @@
     </row>
     <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1">
         <v>2050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>155</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44955</v>
+      </c>
+      <c r="G3">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>520</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44957</v>
+      </c>
+      <c r="G4">
+        <v>5625</v>
       </c>
     </row>
   </sheetData>
